--- a/data/trans_dic/P16A13-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A13-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.03788135566397898</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0574448921854356</v>
+        <v>0.05744489218543559</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01876541262889302</v>
+        <v>0.01760043922694225</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02541342417927671</v>
+        <v>0.02347382259465919</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02492903265767605</v>
+        <v>0.02626117422550851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05048827116257819</v>
+        <v>0.05173895609706856</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.006280308157461337</v>
+        <v>0.00628202131370892</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03460192464975616</v>
+        <v>0.03327378640582542</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01470174136850777</v>
+        <v>0.01365416070364687</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03206240647019425</v>
+        <v>0.03185037261833412</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01659716266684728</v>
+        <v>0.01605597141135955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03461388328266671</v>
+        <v>0.03227817700013483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02507147101730524</v>
+        <v>0.02431186602142844</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04692807144335424</v>
+        <v>0.04581187850363556</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05205982256129474</v>
+        <v>0.05269716335075086</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07656353603279203</v>
+        <v>0.07375278646794603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06733457876909568</v>
+        <v>0.07029883589196788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08948947180691043</v>
+        <v>0.0896204595219188</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0403944138756142</v>
+        <v>0.03786249510356787</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09472061707546907</v>
+        <v>0.0941081789502219</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06078213991225534</v>
+        <v>0.05675875834557759</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06093513879636563</v>
+        <v>0.06106425646197267</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03905235819708393</v>
+        <v>0.04004083756441831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07149750999205957</v>
+        <v>0.06968523390797207</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05517078564445565</v>
+        <v>0.05633053916544155</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07246174998117023</v>
+        <v>0.07031673293034341</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03783967625877103</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05179824147580636</v>
+        <v>0.05179824147580635</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01039614371461752</v>
+        <v>0.01007239236956803</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01500960712211411</v>
+        <v>0.01651662537604839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01715379714586387</v>
+        <v>0.01647924730995604</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0403279821908142</v>
+        <v>0.04006273169390032</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01631572395927926</v>
+        <v>0.01668115953110354</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02734932824781245</v>
+        <v>0.02640067016831651</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02509315133008598</v>
+        <v>0.02390544035434016</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03181980117965798</v>
+        <v>0.03339386769415831</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01608088890980119</v>
+        <v>0.01700557579566974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02426997928763432</v>
+        <v>0.02597578229290708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02526623530499669</v>
+        <v>0.02580358726761954</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03945107458689888</v>
+        <v>0.03909633325446537</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04377126311604975</v>
+        <v>0.04368541625197656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05410666863998711</v>
+        <v>0.05667611605740953</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05834731875057728</v>
+        <v>0.06014276013650491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08041007251364291</v>
+        <v>0.07733477318296858</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05363897920896059</v>
+        <v>0.05563033835391407</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07863838698135407</v>
+        <v>0.07568262855584422</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07478535838768749</v>
+        <v>0.07203033861006718</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06661402390188982</v>
+        <v>0.06836912830915798</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04004885417960428</v>
+        <v>0.04076041898700054</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05709968421025802</v>
+        <v>0.05617565475381136</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05740478111134847</v>
+        <v>0.057285868223731</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06570723476860262</v>
+        <v>0.06508195638224121</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02943745006101321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07825042451716609</v>
+        <v>0.0782504245171661</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05321075247287029</v>
@@ -969,7 +969,7 @@
         <v>0.03729619690560725</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08803864603254709</v>
+        <v>0.0880386460325471</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01076498744263557</v>
+        <v>0.01199180569416132</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02110016047688488</v>
+        <v>0.02095537892404824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01660678149328941</v>
+        <v>0.01687783262653879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05652579257755094</v>
+        <v>0.05948839514535592</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02741921749493006</v>
+        <v>0.02790134351534386</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02641572126596101</v>
+        <v>0.02276801393706439</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03014226355770439</v>
+        <v>0.02903281068242733</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08230209596573902</v>
+        <v>0.0811363158846323</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01969293460591355</v>
+        <v>0.01788683543181588</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02533397327899293</v>
+        <v>0.02526856048949063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02337677781792899</v>
+        <v>0.02416403222841563</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07154636539658091</v>
+        <v>0.07077020559093417</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03680609244983025</v>
+        <v>0.03678091493468173</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05216200283584794</v>
+        <v>0.05364999697793367</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0475103959463119</v>
+        <v>0.05001567725647799</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.103685073544367</v>
+        <v>0.1081751832538941</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09679289007449567</v>
+        <v>0.09419935049897639</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08465354775037749</v>
+        <v>0.07843506949333036</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.125560306574206</v>
+        <v>0.1199096127330606</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1533606134763079</v>
+        <v>0.1481634389685461</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04339834461060171</v>
+        <v>0.04385617315472305</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05464927854887935</v>
+        <v>0.05361796190724722</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0561026572773966</v>
+        <v>0.05713483581533279</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1091515833378908</v>
+        <v>0.1098573372439495</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.02747375308387365</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06800848505842638</v>
+        <v>0.0680084850584264</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0226352978883275</v>
+        <v>0.02261733126652635</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04021713149941652</v>
+        <v>0.0400429061607399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01353197156783103</v>
+        <v>0.01375214257632257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.053961174087349</v>
+        <v>0.05393648636313026</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01800853252932546</v>
+        <v>0.01949934619278937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03104629717554729</v>
+        <v>0.03021597706322465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02507998587444221</v>
+        <v>0.0243497692380948</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05819940703962075</v>
+        <v>0.05816270319573269</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02349688062325306</v>
+        <v>0.02315234138235822</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03947515313216107</v>
+        <v>0.0402939912015423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02023940252335583</v>
+        <v>0.02085255273754766</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05869941046385832</v>
+        <v>0.05813103475911265</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04153225707668213</v>
+        <v>0.04224783709126129</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06799476043710714</v>
+        <v>0.06692200909769636</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03128690259622157</v>
+        <v>0.03057497816914043</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08198551491568887</v>
+        <v>0.08125029541583687</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04307770464300946</v>
+        <v>0.04279074407402211</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06222474240024467</v>
+        <v>0.06069175507111872</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05248192611523268</v>
+        <v>0.05333452479230472</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08370250107568465</v>
+        <v>0.08499751907571589</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03907107906443716</v>
+        <v>0.03853476395489482</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06043986257752886</v>
+        <v>0.06103991793125108</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03524161912013711</v>
+        <v>0.03558057556350394</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07746775111230891</v>
+        <v>0.07710095346879814</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04274020210295818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06113397547510343</v>
+        <v>0.06113397547510341</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03074598814631089</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01631977625700321</v>
+        <v>0.01743560680463636</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02561217836525211</v>
+        <v>0.02502469662797633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02882386618503935</v>
+        <v>0.02902413009175085</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04475738532650277</v>
+        <v>0.04513565549746779</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01810367482935045</v>
+        <v>0.01852190078955325</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05060126298468652</v>
+        <v>0.05066117251046401</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02243387435500795</v>
+        <v>0.02330217066360023</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1060146656782067</v>
+        <v>0.1074898086421869</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02034844627752005</v>
+        <v>0.02010816568141336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04415381599217873</v>
+        <v>0.0447077635768547</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02910035214742499</v>
+        <v>0.0299099863520542</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08627249129184199</v>
+        <v>0.08474516854407962</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05620199095194912</v>
+        <v>0.05557066212782878</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06199993843809358</v>
+        <v>0.06242160229128788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06219554129916302</v>
+        <v>0.06165657225466459</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08403526305310142</v>
+        <v>0.08528862685205953</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04835542876745599</v>
+        <v>0.04889407030877632</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08589806230662743</v>
+        <v>0.09002449715713724</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05288944699046081</v>
+        <v>0.05042493352754941</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1395490524331868</v>
+        <v>0.1388580498951025</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04451567185818308</v>
+        <v>0.04324244220131936</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07028361367368588</v>
+        <v>0.06998995194411189</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05201164127018588</v>
+        <v>0.05119788890682572</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1104601207575657</v>
+        <v>0.1104961797225793</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.03733097958110845</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.08041927150355979</v>
+        <v>0.08041927150355978</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003870349056368919</v>
+        <v>0.003858503593563096</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.00558422533008759</v>
+        <v>0.004590615680102267</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0347204178559369</v>
+        <v>0.03465507388162781</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04028427546346422</v>
+        <v>0.039566956252712</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03476210633695723</v>
+        <v>0.03360903714581696</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.08253584830660571</v>
+        <v>0.08413548765256827</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02911311673893909</v>
+        <v>0.02946078660913672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03504380585977789</v>
+        <v>0.03407492629051417</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02825034093867372</v>
+        <v>0.02754971078161121</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06914924337616435</v>
+        <v>0.06832449871837967</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02163718288552729</v>
+        <v>0.02586631490743077</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04623680068335635</v>
+        <v>0.04801505633807291</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0229816233423174</v>
+        <v>0.01906318300146419</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03841916754081048</v>
+        <v>0.0354187456250363</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05767299444889645</v>
+        <v>0.05848198160373329</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06696453021168113</v>
+        <v>0.06695458968584257</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06102362057338855</v>
+        <v>0.06172651282116806</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1157305924053539</v>
+        <v>0.1153237836584044</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04928771337088018</v>
+        <v>0.04847842851179242</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0582927537559849</v>
+        <v>0.05781593212491268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05081155686925376</v>
+        <v>0.04969310877846783</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09287329000421005</v>
+        <v>0.09421700431409473</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.02892232878611382</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06239553102904926</v>
+        <v>0.06239553102904925</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.03595837305412114</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02131035656257211</v>
+        <v>0.0213813886861715</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03442905198147225</v>
+        <v>0.03433601413213256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02401953788470488</v>
+        <v>0.02324711099410831</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05564294083166484</v>
+        <v>0.05507686039083785</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03043138139527706</v>
+        <v>0.03005205808596952</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04604336977375856</v>
+        <v>0.04533960330711474</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03460968786189512</v>
+        <v>0.0331437294841348</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07817903885507752</v>
+        <v>0.07800213350987065</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02732567369957849</v>
+        <v>0.02729785377806864</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04201261666393553</v>
+        <v>0.04239084578122027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03053671925958152</v>
+        <v>0.03039448587805259</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06918137646382377</v>
+        <v>0.06909586360951309</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03287552761607765</v>
+        <v>0.03221525550576439</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04883084874617302</v>
+        <v>0.04955478661319506</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03548466374564852</v>
+        <v>0.03524531866376367</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0710573927105539</v>
+        <v>0.07061726208112216</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04227263559441807</v>
+        <v>0.04248594374411361</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06174975910608212</v>
+        <v>0.06135202311403555</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0482344152210386</v>
+        <v>0.04768299532496367</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09214389739072047</v>
+        <v>0.09167554516629384</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03606003938928154</v>
+        <v>0.03564041302053588</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05353470126386917</v>
+        <v>0.05354405544170234</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04010757109550869</v>
+        <v>0.03986858981440389</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07922821222794048</v>
+        <v>0.08007399773762786</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8891</v>
+        <v>8339</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11111</v>
+        <v>10263</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10697</v>
+        <v>11268</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>27800</v>
+        <v>28488</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10881</v>
+        <v>10463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5102</v>
+        <v>4739</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15660</v>
+        <v>15556</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12953</v>
+        <v>12531</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26018</v>
+        <v>24262</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19459</v>
+        <v>18870</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48760</v>
+        <v>47600</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24665</v>
+        <v>24967</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33474</v>
+        <v>32246</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28893</v>
+        <v>30165</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49275</v>
+        <v>49347</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12388</v>
+        <v>11612</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29785</v>
+        <v>29593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21095</v>
+        <v>19698</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29761</v>
+        <v>29824</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30479</v>
+        <v>31250</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53742</v>
+        <v>52380</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>42821</v>
+        <v>43721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>75290</v>
+        <v>73061</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3815</v>
+        <v>3696</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6259</v>
+        <v>6888</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6471</v>
+        <v>6216</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19487</v>
+        <v>19359</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6067</v>
+        <v>6203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9171</v>
+        <v>8853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>9342</v>
+        <v>8899</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13464</v>
+        <v>14130</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11881</v>
+        <v>12564</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>18259</v>
+        <v>19542</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18937</v>
+        <v>19340</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>35757</v>
+        <v>35435</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16061</v>
+        <v>16030</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22563</v>
+        <v>23635</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22010</v>
+        <v>22687</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38855</v>
+        <v>37369</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19946</v>
+        <v>20687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26369</v>
+        <v>25378</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27841</v>
+        <v>26815</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28187</v>
+        <v>28930</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29588</v>
+        <v>30114</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>42958</v>
+        <v>42263</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>43025</v>
+        <v>42936</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>59554</v>
+        <v>58987</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5839</v>
+        <v>6504</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13193</v>
+        <v>13102</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8667</v>
+        <v>8809</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26658</v>
+        <v>28055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4600</v>
+        <v>4681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6814</v>
+        <v>5873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5007</v>
+        <v>4823</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15431</v>
+        <v>15213</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13985</v>
+        <v>12703</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22375</v>
+        <v>22317</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16084</v>
+        <v>16626</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47157</v>
+        <v>46645</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19963</v>
+        <v>19950</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32614</v>
+        <v>33545</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24796</v>
+        <v>26104</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48899</v>
+        <v>51017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16240</v>
+        <v>15805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21835</v>
+        <v>20231</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20858</v>
+        <v>19920</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28755</v>
+        <v>27780</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>30820</v>
+        <v>31145</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>48265</v>
+        <v>47355</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>38601</v>
+        <v>39311</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71943</v>
+        <v>72408</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28030</v>
+        <v>28008</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46452</v>
+        <v>46251</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15557</v>
+        <v>15810</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61076</v>
+        <v>61048</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12863</v>
+        <v>13928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>23802</v>
+        <v>23165</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20713</v>
+        <v>20110</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50087</v>
+        <v>50056</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45880</v>
+        <v>45208</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>75859</v>
+        <v>77433</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>39983</v>
+        <v>41195</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>116956</v>
+        <v>115824</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51431</v>
+        <v>52317</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>78537</v>
+        <v>77298</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35969</v>
+        <v>35150</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>92795</v>
+        <v>91963</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30770</v>
+        <v>30565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47705</v>
+        <v>46530</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43344</v>
+        <v>44048</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>72036</v>
+        <v>73150</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76291</v>
+        <v>75244</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>116147</v>
+        <v>117300</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>69620</v>
+        <v>70290</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>154351</v>
+        <v>153620</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5704</v>
+        <v>6094</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13077</v>
+        <v>12778</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>17891</v>
+        <v>18015</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25376</v>
+        <v>25591</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10297</v>
+        <v>10534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>38422</v>
+        <v>38467</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>16562</v>
+        <v>17203</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>88006</v>
+        <v>89230</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>18686</v>
+        <v>18465</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>56071</v>
+        <v>56774</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>39546</v>
+        <v>40646</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>120532</v>
+        <v>118398</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19645</v>
+        <v>19424</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31657</v>
+        <v>31872</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38605</v>
+        <v>38271</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>47646</v>
+        <v>48357</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27502</v>
+        <v>27809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>65223</v>
+        <v>68356</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>39045</v>
+        <v>37226</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>115843</v>
+        <v>115270</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40878</v>
+        <v>39709</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>89253</v>
+        <v>88880</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70681</v>
+        <v>69575</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>154324</v>
+        <v>154375</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1325</v>
+        <v>1089</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43357</v>
+        <v>43276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>44524</v>
+        <v>43732</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>37613</v>
+        <v>36366</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>69577</v>
+        <v>70926</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>45037</v>
+        <v>45575</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>48048</v>
+        <v>46720</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>38680</v>
+        <v>37720</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>74696</v>
+        <v>73806</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6452</v>
+        <v>7713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12292</v>
+        <v>12764</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6599</v>
+        <v>5474</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9114</v>
+        <v>8402</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>72020</v>
+        <v>73030</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>74013</v>
+        <v>74002</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>66029</v>
+        <v>66790</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>97560</v>
+        <v>97217</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>76246</v>
+        <v>74994</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>79925</v>
+        <v>79271</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>69570</v>
+        <v>68038</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>100324</v>
+        <v>101775</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>69667</v>
+        <v>69899</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>117436</v>
+        <v>117119</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>81323</v>
+        <v>78708</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>191495</v>
+        <v>189546</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>102801</v>
+        <v>101520</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>162944</v>
+        <v>160454</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>122227</v>
+        <v>117050</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>284008</v>
+        <v>283365</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>181642</v>
+        <v>181457</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>291983</v>
+        <v>294611</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>211232</v>
+        <v>210248</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>489408</v>
+        <v>488803</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>107476</v>
+        <v>105317</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166560</v>
+        <v>169029</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>120141</v>
+        <v>119331</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>244543</v>
+        <v>243028</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>142802</v>
+        <v>143523</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>218528</v>
+        <v>217120</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>170344</v>
+        <v>168397</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>334739</v>
+        <v>333038</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>239702</v>
+        <v>236912</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>372060</v>
+        <v>372125</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>277437</v>
+        <v>275784</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>560482</v>
+        <v>566465</v>
       </c>
     </row>
     <row r="32">
